--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Desktop\git\Remise1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Documents\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -707,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -2127,4 +2128,282 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Documents\ESP\Remise1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Desktop\git\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Documents\ESP\Remise1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Desktop\git\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,7 +2135,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -361,6 +361,15 @@
   </si>
   <si>
     <t>Le système vérifie que le code barre scanné est bien un produit du système</t>
+  </si>
+  <si>
+    <t>fait</t>
+  </si>
+  <si>
+    <t>en attente imprimante ()</t>
+  </si>
+  <si>
+    <t>code fait en grande partie</t>
   </si>
 </sst>
 </file>
@@ -706,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,9 +728,10 @@
     <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="206.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,8 +747,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -753,7 +766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -761,7 +774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -769,7 +782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -780,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -791,7 +804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -802,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>33</v>
@@ -813,7 +826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -824,7 +837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
@@ -832,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
@@ -840,7 +853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -848,7 +861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -856,7 +869,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
@@ -864,7 +877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>98</v>
       </c>
@@ -872,7 +885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -884,10 +897,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -917,8 +933,11 @@
       <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,7 +953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,7 +961,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
@@ -950,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>18</v>
@@ -961,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -975,8 +994,11 @@
       <c r="E25" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -984,7 +1006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1008,7 +1030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>33</v>
@@ -1019,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1027,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>35</v>
@@ -1038,7 +1060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -1052,8 +1074,11 @@
       <c r="E33" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>6</v>
@@ -1064,7 +1089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="6" t="s">
         <v>8</v>
@@ -1075,7 +1100,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="6" t="s">
         <v>10</v>
@@ -1086,7 +1111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>6</v>
       </c>
@@ -1100,8 +1125,11 @@
       <c r="E37" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -1112,7 +1140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>8</v>
@@ -1123,7 +1151,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>10</v>
@@ -1134,7 +1162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>11</v>
@@ -1145,7 +1173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>7</v>
       </c>
@@ -1159,8 +1187,11 @@
       <c r="E42" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>6</v>
@@ -1171,7 +1202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,7 +1218,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1226,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>8</v>
       </c>
@@ -1217,8 +1248,11 @@
       <c r="E48" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>6</v>
@@ -1229,7 +1263,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="6" t="s">
         <v>8</v>
@@ -1240,7 +1274,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="6" t="s">
         <v>10</v>
@@ -1251,7 +1285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>9</v>
       </c>
@@ -1265,8 +1299,11 @@
       <c r="E52" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>10</v>
       </c>
@@ -1312,8 +1349,11 @@
       <c r="E57" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
@@ -1321,7 +1361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>18</v>
       </c>
@@ -1353,7 +1393,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>11</v>
       </c>
@@ -1367,8 +1407,11 @@
       <c r="E63" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
         <v>6</v>
@@ -1379,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
         <v>8</v>
@@ -1390,7 +1433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
         <v>10</v>
@@ -1401,7 +1444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
         <v>11</v>
@@ -1412,7 +1455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>18</v>
@@ -1423,7 +1466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>12</v>
       </c>
@@ -1437,8 +1480,11 @@
       <c r="E69" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
@@ -1446,7 +1492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1508,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>13</v>
       </c>
@@ -1484,8 +1530,11 @@
       <c r="E74" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
@@ -1493,7 +1542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1550,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>18</v>
@@ -1528,7 +1577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>14</v>
       </c>
@@ -1542,8 +1591,11 @@
       <c r="E80" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>6</v>
@@ -1554,7 +1606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>8</v>
@@ -1565,7 +1617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>10</v>
@@ -1576,7 +1628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>11</v>
@@ -1587,7 +1639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>15</v>
       </c>
@@ -1601,8 +1653,11 @@
       <c r="E85" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>6</v>
@@ -1613,7 +1668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>8</v>
@@ -1624,7 +1679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
@@ -1648,7 +1703,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>16</v>
       </c>
@@ -1663,7 +1718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="6" t="s">
         <v>6</v>
@@ -1674,7 +1729,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6" t="s">
         <v>8</v>
@@ -1685,7 +1740,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
         <v>10</v>
@@ -1696,7 +1751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>17</v>
       </c>
@@ -1711,7 +1766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="6" t="s">
         <v>6</v>
@@ -2134,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adminesp\Desktop\git\Remise1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A631FBA-F331-4120-AAA0-88D45C361442}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-28965" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -375,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,10 +715,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
@@ -2186,11 +2187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A631FBA-F331-4120-AAA0-88D45C361442}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA5F70-4781-4BCC-9122-AC5ACC89C99F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28965" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -719,7 +719,7 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,6 +1718,9 @@
       <c r="E91" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
@@ -1766,6 +1769,9 @@
       <c r="E95" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="F95" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
@@ -1778,7 +1784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="6" t="s">
         <v>8</v>
@@ -1789,7 +1795,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="6" t="s">
         <v>10</v>
@@ -1800,7 +1806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>18</v>
       </c>
@@ -1814,8 +1820,11 @@
       <c r="E99" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
@@ -1839,7 +1848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>11</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>18</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>19</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>8</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>20</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>6</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>8</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>21</v>
       </c>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA5F70-4781-4BCC-9122-AC5ACC89C99F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666EB081-0A7C-4074-8E63-4A70EBA24FB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,9 +1717,6 @@
       </c>
       <c r="E91" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F91" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666EB081-0A7C-4074-8E63-4A70EBA24FB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAE4700-5017-4996-A9FD-0F423DCEC126}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6540" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
     <t>en attente imprimante ()</t>
   </si>
   <si>
-    <t>code fait en grande partie</t>
+    <t>En tant qu'utilisateur , je souhaite imprimer l'étiquette d'un produit afin de pouvoir gérer son inventaire</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAE4700-5017-4996-A9FD-0F423DCEC126}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68748656-7DA5-4631-A8D0-D59283D68CA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6540" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -718,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,6 +1719,9 @@
       <c r="E91" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="F91" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
@@ -2197,7 +2201,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,4 +2474,959 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF609C8-9816-4A25-AD96-CB7115CD8809}">
+  <dimension ref="A1:E80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>12</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3">
+        <v>3</v>
+      </c>
+      <c r="D45" s="3">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>14</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <v>14</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>15</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3">
+        <v>15</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>16</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3">
+        <v>16</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>17</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3">
+        <v>3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>17</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>18</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3">
+        <v>18</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\ESP\Remise1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68748656-7DA5-4631-A8D0-D59283D68CA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114D7AD-BBAA-4B12-8807-48031725456F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -372,6 +372,30 @@
   </si>
   <si>
     <t>En tant qu'utilisateur , je souhaite imprimer l'étiquette d'un produit afin de pouvoir gérer son inventaire</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Enlever (demande du client)</t>
+  </si>
+  <si>
+    <t>Enlever (parler avec client)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actif / inactif </t>
+  </si>
+  <si>
+    <t>action non final donc correct</t>
+  </si>
+  <si>
+    <t>FINI</t>
+  </si>
+  <si>
+    <t>SUPPRIMER</t>
+  </si>
+  <si>
+    <t>faculatatif</t>
   </si>
 </sst>
 </file>
@@ -723,7 +747,7 @@
       <selection activeCell="A91" sqref="A91:E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
@@ -2201,10 +2225,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
@@ -2478,15 +2502,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF609C8-9816-4A25-AD96-CB7115CD8809}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>4</v>
       </c>
@@ -2500,8 +2527,11 @@
       <c r="E1" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P1" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -2511,8 +2541,11 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -2522,8 +2555,11 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -2533,8 +2569,11 @@
       <c r="E4" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -2544,8 +2583,11 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -2555,8 +2597,11 @@
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -2566,8 +2611,11 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>35</v>
@@ -2577,8 +2625,11 @@
       <c r="E8" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2592,8 +2643,11 @@
       <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
@@ -2603,8 +2657,11 @@
       <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -2614,8 +2671,11 @@
       <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -2625,8 +2685,11 @@
       <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -2640,8 +2703,11 @@
       <c r="E13" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P13" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -2651,8 +2717,11 @@
       <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>8</v>
@@ -2662,8 +2731,11 @@
       <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -2673,8 +2745,11 @@
       <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -2684,8 +2759,11 @@
       <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -2699,8 +2777,11 @@
       <c r="E18" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P18" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -2710,8 +2791,11 @@
       <c r="E19" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -2721,8 +2805,11 @@
       <c r="E20" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -2732,8 +2819,11 @@
       <c r="E21" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>11</v>
@@ -2743,8 +2833,11 @@
       <c r="E22" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>18</v>
@@ -2754,8 +2847,11 @@
       <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -2769,8 +2865,11 @@
       <c r="E24" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P24" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>6</v>
@@ -2780,8 +2879,11 @@
       <c r="E25" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
         <v>8</v>
@@ -2791,8 +2893,11 @@
       <c r="E26" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="6" t="s">
         <v>10</v>
@@ -2802,8 +2907,11 @@
       <c r="E27" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9</v>
       </c>
@@ -2817,8 +2925,11 @@
       <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P28" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
@@ -2828,8 +2939,11 @@
       <c r="E29" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -2839,8 +2953,11 @@
       <c r="E30" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -2850,8 +2967,11 @@
       <c r="E31" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -2861,8 +2981,11 @@
       <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>10</v>
       </c>
@@ -2876,8 +2999,11 @@
       <c r="E33" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P33" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>6</v>
@@ -2887,8 +3013,11 @@
       <c r="E34" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
@@ -2898,8 +3027,11 @@
       <c r="E35" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -2909,8 +3041,11 @@
       <c r="E36" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>11</v>
@@ -2920,8 +3055,11 @@
       <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>18</v>
@@ -2931,8 +3069,11 @@
       <c r="E38" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>11</v>
       </c>
@@ -2946,8 +3087,11 @@
       <c r="E39" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P39" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>6</v>
@@ -2957,8 +3101,11 @@
       <c r="E40" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="s">
         <v>8</v>
@@ -2968,8 +3115,11 @@
       <c r="E41" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
         <v>10</v>
@@ -2979,8 +3129,11 @@
       <c r="E42" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
         <v>11</v>
@@ -2990,8 +3143,11 @@
       <c r="E43" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
         <v>18</v>
@@ -3001,8 +3157,11 @@
       <c r="E44" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>12</v>
       </c>
@@ -3016,8 +3175,11 @@
       <c r="E45" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>6</v>
@@ -3027,8 +3189,11 @@
       <c r="E46" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>8</v>
@@ -3038,8 +3203,11 @@
       <c r="E47" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>10</v>
@@ -3049,8 +3217,11 @@
       <c r="E48" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -3060,8 +3231,11 @@
       <c r="E49" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>13</v>
       </c>
@@ -3075,8 +3249,11 @@
       <c r="E50" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>6</v>
@@ -3086,8 +3263,11 @@
       <c r="E51" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>8</v>
@@ -3097,8 +3277,11 @@
       <c r="E52" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>10</v>
@@ -3108,8 +3291,11 @@
       <c r="E53" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>11</v>
@@ -3119,8 +3305,11 @@
       <c r="E54" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>18</v>
@@ -3130,8 +3319,11 @@
       <c r="E55" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>14</v>
       </c>
@@ -3145,8 +3337,11 @@
       <c r="E56" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P56" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>6</v>
@@ -3156,8 +3351,11 @@
       <c r="E57" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
@@ -3167,8 +3365,11 @@
       <c r="E58" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>10</v>
@@ -3178,8 +3379,11 @@
       <c r="E59" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>11</v>
@@ -3189,8 +3393,11 @@
       <c r="E60" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>15</v>
       </c>
@@ -3204,8 +3411,11 @@
       <c r="E61" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>6</v>
@@ -3215,8 +3425,11 @@
       <c r="E62" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>8</v>
@@ -3226,8 +3439,11 @@
       <c r="E63" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>10</v>
@@ -3237,8 +3453,11 @@
       <c r="E64" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>11</v>
@@ -3248,8 +3467,11 @@
       <c r="E65" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>18</v>
@@ -3259,8 +3481,11 @@
       <c r="E66" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>16</v>
       </c>
@@ -3274,8 +3499,11 @@
       <c r="E67" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P67" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
         <v>6</v>
@@ -3285,8 +3513,11 @@
       <c r="E68" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="6" t="s">
         <v>8</v>
@@ -3296,8 +3527,11 @@
       <c r="E69" s="7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="6" t="s">
         <v>10</v>
@@ -3307,8 +3541,11 @@
       <c r="E70" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>17</v>
       </c>
@@ -3322,8 +3559,11 @@
       <c r="E71" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P71" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
         <v>6</v>
@@ -3333,8 +3573,11 @@
       <c r="E72" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6" t="s">
         <v>8</v>
@@ -3344,8 +3587,11 @@
       <c r="E73" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
         <v>10</v>
@@ -3355,8 +3601,11 @@
       <c r="E74" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>18</v>
       </c>
@@ -3370,8 +3619,11 @@
       <c r="E75" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P75" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1" t="s">
         <v>6</v>
@@ -3381,8 +3633,11 @@
       <c r="E76" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>8</v>
@@ -3392,8 +3647,11 @@
       <c r="E77" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>10</v>
@@ -3403,8 +3661,11 @@
       <c r="E78" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>11</v>
@@ -3414,8 +3675,11 @@
       <c r="E79" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>18</v>
@@ -3425,8 +3689,12 @@
       <c r="E80" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="P80" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="274" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1114D7AD-BBAA-4B12-8807-48031725456F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1D130-BA24-40E7-B122-8608FA361F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -743,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:E104"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E135" sqref="A105:E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF609C8-9816-4A25-AD96-CB7115CD8809}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
@@ -3697,4 +3698,392 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="274" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5EE0C9-3565-47D5-93A1-14D7ECCF6D85}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1D130-BA24-40E7-B122-8608FA361F59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C265F29-D98C-4AE0-9F2D-B04F2A37F7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -3702,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5EE0C9-3565-47D5-93A1-14D7ECCF6D85}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3930,17 +3930,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,126 +3962,57 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>25</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="3">
-        <v>25</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="2" t="s">
-        <v>77</v>
-      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
-        <v>6</v>
-      </c>
-      <c r="D29" s="3">
-        <v>26</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Remise1/Backlog.xlsx
+++ b/Remise1/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Documents\ESP\Remise1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\Desktop\ESP\Remise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C265F29-D98C-4AE0-9F2D-B04F2A37F7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71497070-8D86-4793-85A5-A7D7DFC536A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>faculatatif</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je souhaite créer une nouveau département de produit afin de pouvoir associer des produits à ce département</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
       <selection activeCell="E135" sqref="A105:E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
@@ -2229,7 +2232,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
@@ -2505,11 +2508,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF609C8-9816-4A25-AD96-CB7115CD8809}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P76" sqref="P76"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76:G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="16" max="16" width="30.42578125" customWidth="1"/>
   </cols>
@@ -2864,7 +2867,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>120</v>
@@ -3705,10 +3708,10 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
